--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43560</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43591</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43612</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44819</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>45106</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45160</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43322</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43329</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43332</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43367</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43369</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43399</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43402</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43427</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43431</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43439</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43440</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43441</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43448</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43452</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43480</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43488</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43494</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43496</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43500</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43502</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43503</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43504</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43507</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>43523</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30345,7 +30345,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30402,7 +30402,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43560</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43591</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43612</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44819</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>45106</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45160</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43322</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43329</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43332</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43367</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43369</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43399</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43402</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43427</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43431</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43439</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43440</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43441</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43448</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43452</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43480</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43488</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43494</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43496</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43500</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43502</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43503</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43504</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43507</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>43523</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30345,7 +30345,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30402,7 +30402,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43560</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43591</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43612</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44819</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>45106</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45160</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43322</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43329</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43332</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43367</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43369</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43399</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43402</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43427</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43431</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43439</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43440</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43441</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43448</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43452</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43480</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43488</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43494</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43496</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43500</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43502</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43503</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43504</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43507</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>43523</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30345,7 +30345,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30402,7 +30402,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43560</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43591</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43612</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44819</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>45106</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45160</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43322</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43329</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43332</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43367</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43369</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43399</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43402</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43427</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43431</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43439</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43440</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43441</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43448</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43452</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43480</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43488</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43494</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43496</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43500</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43502</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43503</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43504</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43507</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>43523</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30345,7 +30345,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30402,7 +30402,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43560</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43591</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43612</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44819</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>45106</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45160</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43322</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43329</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43332</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43367</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43369</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43399</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43402</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43427</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43431</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43439</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43440</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43441</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43448</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43452</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43480</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43488</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43494</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43496</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43500</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43502</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43503</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43504</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43507</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>43523</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30345,7 +30345,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30402,7 +30402,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43560</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>43591</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43612</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         <v>43741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44819</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>45106</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45160</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>43318</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43322</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43326</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43329</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43332</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43335</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43339</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43343</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43347</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43350</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43356</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43367</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43369</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43382</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43390</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43395</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43399</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43402</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43409</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43411</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43416</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43420</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43427</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43431</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43433</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43434</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43439</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43440</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43441</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43447</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43448</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43452</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43475</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43479</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43480</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43488</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>43494</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>43496</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43497</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43500</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43502</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43503</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43504</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>43507</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>43510</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43522</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>43523</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10632,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14684,7 +14684,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15611,7 +15611,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15668,7 +15668,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19673,7 +19673,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19730,7 +19730,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20015,7 +20015,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20129,7 +20129,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20243,7 +20243,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20357,7 +20357,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20476,7 +20476,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20647,7 +20647,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22072,7 +22072,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22186,7 +22186,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22243,7 +22243,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22300,7 +22300,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22424,7 +22424,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22481,7 +22481,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22595,7 +22595,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23279,7 +23279,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23393,7 +23393,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23792,7 +23792,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23849,7 +23849,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24077,7 +24077,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24134,7 +24134,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24191,7 +24191,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24248,7 +24248,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24305,7 +24305,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24647,7 +24647,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24818,7 +24818,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24937,7 +24937,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25051,7 +25051,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25564,7 +25564,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25735,7 +25735,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25792,7 +25792,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25963,7 +25963,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26310,7 +26310,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26367,7 +26367,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27051,7 +27051,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27108,7 +27108,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27165,7 +27165,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29051,7 +29051,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29371,7 +29371,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30345,7 +30345,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30402,7 +30402,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30459,7 +30459,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31205,7 +31205,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31262,7 +31262,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33143,7 +33143,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33200,7 +33200,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33257,7 +33257,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33428,7 +33428,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33485,7 +33485,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33599,7 +33599,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33656,7 +33656,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33713,7 +33713,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33770,7 +33770,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,14 +1526,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 18590-2019</t>
+          <t>A 12414-2019</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43560</v>
+        <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1545,16 +1545,11 @@
           <t>ALVESTA</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,702 +1580,735 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 12414-2019.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 12414-2019.png")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 12414-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 12414-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 12414-2019.docx")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 12414-2019.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 18590-2019</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>43560</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ALVESTA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Gropticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 18590-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 18590-2019.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 18590-2019.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 18590-2019.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 18590-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 18590-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 22980-2019</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>43591</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ALVESTA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ALVESTA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>4.9</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 22980-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 22980-2019.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 22980-2019.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 22980-2019.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 22980-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 22980-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 26557-2019</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>43612</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ALVESTA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ALVESTA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>4.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Silkesslidskivling</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 26557-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 26557-2019.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 26557-2019.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 26557-2019.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 26557-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 26557-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 53911-2019</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>43741</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ALVESTA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ALVESTA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>24.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Sotlav</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 53911-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 53911-2019.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 53911-2019.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 53911-2019.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 53911-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 53911-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 37608-2022</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44810</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ALVESTA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ALVESTA</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>5.3</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Gropticka</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 37608-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 37608-2022.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 37608-2022.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 37608-2022.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 37608-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 37608-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 39766-2022</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44819</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ALVESTA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ALVESTA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>0.8</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Brandticka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 39766-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 39766-2022.png")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 39766-2022.docx")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 39766-2022.docx")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 39766-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 39766-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 31848-2023</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45106</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ALVESTA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C20" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ALVESTA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>3.3</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Springkorn</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 31848-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 31848-2023.png")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 31848-2023.docx")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 31848-2023.docx")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 31848-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 31848-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 37950-2023</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>45160</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ALVESTA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C21" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KRONOBERGS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ALVESTA</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>4.8</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Brandticka</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 37950-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 37950-2023.png")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 37950-2023.docx")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 37950-2023.docx")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 37950-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 37950-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 34303-2018</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>43318</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KRONOBERGS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ALVESTA</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr"/>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35095-2018</t>
+          <t>A 34303-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43322</v>
+        <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2293,7 +2321,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2330,14 +2358,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 35985-2018</t>
+          <t>A 35095-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43326</v>
+        <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2350,7 +2378,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2387,14 +2415,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 36756-2018</t>
+          <t>A 35985-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43329</v>
+        <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2407,7 +2435,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,14 +2472,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 36839-2018</t>
+          <t>A 36756-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43332</v>
+        <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2464,7 +2492,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2501,14 +2529,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 37646-2018</t>
+          <t>A 36839-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43335</v>
+        <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2521,7 +2549,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2558,14 +2586,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 39158-2018</t>
+          <t>A 37646-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43339</v>
+        <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2578,7 +2606,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2615,14 +2643,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 39942-2018</t>
+          <t>A 39158-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43343</v>
+        <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2635,7 +2663,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2672,14 +2700,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 40896-2018</t>
+          <t>A 39942-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43347</v>
+        <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2692,7 +2720,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2729,14 +2757,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 41687-2018</t>
+          <t>A 40896-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43350</v>
+        <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2749,7 +2777,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2786,14 +2814,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 41748-2018</t>
+          <t>A 41687-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2806,7 +2834,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2843,14 +2871,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 44128-2018</t>
+          <t>A 41748-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>43355</v>
+        <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2863,7 +2891,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2900,14 +2928,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 43566-2018</t>
+          <t>A 44128-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43356</v>
+        <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2948,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2957,14 +2985,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 46857-2018</t>
+          <t>A 43566-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43367</v>
+        <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2977,7 +3005,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3014,14 +3042,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47645-2018</t>
+          <t>A 46857-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43369</v>
+        <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3034,7 +3062,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3071,14 +3099,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 51241-2018</t>
+          <t>A 47645-2018</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43382</v>
+        <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3091,7 +3119,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3128,14 +3156,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 54486-2018</t>
+          <t>A 51241-2018</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43390</v>
+        <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3148,7 +3176,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3185,14 +3213,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 56228-2018</t>
+          <t>A 54486-2018</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43395</v>
+        <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3205,7 +3233,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3242,14 +3270,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 56289-2018</t>
+          <t>A 56228-2018</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43399</v>
+        <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3262,7 +3290,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3299,14 +3327,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 58669-2018</t>
+          <t>A 56289-2018</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3319,7 +3347,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3356,14 +3384,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 58756-2018</t>
+          <t>A 58669-2018</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43402</v>
+        <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3376,7 +3404,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3413,14 +3441,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 59071-2018</t>
+          <t>A 58756-2018</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43403</v>
+        <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3433,7 +3461,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3470,14 +3498,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59055-2018</t>
+          <t>A 59071-2018</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3490,7 +3518,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3527,14 +3555,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 59063-2018</t>
+          <t>A 59055-2018</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3547,7 +3575,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3584,14 +3612,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60570-2018</t>
+          <t>A 59063-2018</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43408</v>
+        <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3604,7 +3632,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3641,14 +3669,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60566-2018</t>
+          <t>A 60570-2018</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3661,7 +3689,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3698,14 +3726,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 58453-2018</t>
+          <t>A 60566-2018</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43409</v>
+        <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3718,7 +3746,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3755,14 +3783,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59142-2018</t>
+          <t>A 58453-2018</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43411</v>
+        <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3775,7 +3803,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3812,14 +3840,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 62073-2018</t>
+          <t>A 59142-2018</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>43416</v>
+        <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3832,7 +3860,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3869,14 +3897,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 63540-2018</t>
+          <t>A 62073-2018</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3889,7 +3917,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3926,14 +3954,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59336-2018</t>
+          <t>A 63540-2018</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43418</v>
+        <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3946,7 +3974,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3983,14 +4011,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64480-2018</t>
+          <t>A 59336-2018</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43419</v>
+        <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4003,7 +4031,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4040,14 +4068,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60648-2018</t>
+          <t>A 64480-2018</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43420</v>
+        <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4060,7 +4088,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4097,14 +4125,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 65431-2018</t>
+          <t>A 60648-2018</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43423</v>
+        <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4117,7 +4145,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4154,14 +4182,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 66134-2018</t>
+          <t>A 65431-2018</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43427</v>
+        <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4174,7 +4202,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4211,14 +4239,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 67046-2018</t>
+          <t>A 66134-2018</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43431</v>
+        <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4231,7 +4259,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4268,14 +4296,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 65200-2018</t>
+          <t>A 67046-2018</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43433</v>
+        <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4288,7 +4316,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4325,14 +4353,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 68110-2018</t>
+          <t>A 65200-2018</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43434</v>
+        <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4345,7 +4373,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4382,14 +4410,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 67323-2018</t>
+          <t>A 68110-2018</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43439</v>
+        <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4402,7 +4430,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4439,14 +4467,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 68962-2018</t>
+          <t>A 67323-2018</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43440</v>
+        <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4459,7 +4487,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4496,14 +4524,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 68982-2018</t>
+          <t>A 68962-2018</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4516,7 +4544,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4553,14 +4581,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 68960-2018</t>
+          <t>A 68982-2018</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4573,7 +4601,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4610,14 +4638,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 68302-2018</t>
+          <t>A 68960-2018</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43441</v>
+        <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4630,7 +4658,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4667,14 +4695,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 68304-2018</t>
+          <t>A 68302-2018</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4715,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4724,14 +4752,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 69909-2018</t>
+          <t>A 68304-2018</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43444</v>
+        <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4781,14 +4809,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 70481-2018</t>
+          <t>A 69909-2018</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43447</v>
+        <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4801,7 +4829,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4838,14 +4866,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 70675-2018</t>
+          <t>A 70481-2018</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4858,7 +4886,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4895,14 +4923,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 70106-2018</t>
+          <t>A 70675-2018</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43448</v>
+        <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4915,7 +4943,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4952,14 +4980,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 70652-2018</t>
+          <t>A 70106-2018</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43451</v>
+        <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4972,7 +5000,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5009,14 +5037,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 71480-2018</t>
+          <t>A 70652-2018</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43452</v>
+        <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5029,7 +5057,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5066,14 +5094,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 72514-2018</t>
+          <t>A 71480-2018</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43462</v>
+        <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5086,7 +5114,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5123,14 +5151,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 161-2019</t>
+          <t>A 72514-2018</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43467</v>
+        <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5143,7 +5171,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.7</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5180,14 +5208,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 82-2019</t>
+          <t>A 161-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5200,7 +5228,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5237,14 +5265,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 327-2019</t>
+          <t>A 82-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43468</v>
+        <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5257,7 +5285,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5294,14 +5322,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2084-2019</t>
+          <t>A 327-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43475</v>
+        <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5314,7 +5342,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5351,14 +5379,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2015-2019</t>
+          <t>A 2084-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5371,7 +5399,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5408,14 +5436,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 4716-2019</t>
+          <t>A 2015-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43479</v>
+        <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5428,7 +5456,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5465,14 +5493,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 5028-2019</t>
+          <t>A 4716-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43480</v>
+        <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5485,7 +5513,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5522,14 +5550,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 4524-2019</t>
+          <t>A 5028-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43486</v>
+        <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5579,14 +5607,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8558-2019</t>
+          <t>A 4524-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43488</v>
+        <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5599,7 +5627,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5636,14 +5664,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5322-2019</t>
+          <t>A 8558-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5656,7 +5684,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5693,14 +5721,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6987-2019</t>
+          <t>A 5322-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43489</v>
+        <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5713,7 +5741,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5750,14 +5778,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 6298-2019</t>
+          <t>A 6987-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43493</v>
+        <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5770,7 +5798,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5807,14 +5835,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6348-2019</t>
+          <t>A 6298-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5827,7 +5855,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5864,14 +5892,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 6093-2019</t>
+          <t>A 6348-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5884,7 +5912,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5921,14 +5949,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6349-2019</t>
+          <t>A 6093-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5941,7 +5969,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5978,14 +6006,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 7786-2019</t>
+          <t>A 6349-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43494</v>
+        <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5998,7 +6026,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6035,14 +6063,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7197-2019</t>
+          <t>A 7786-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43496</v>
+        <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6055,7 +6083,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6092,14 +6120,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8400-2019</t>
+          <t>A 7197-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43497</v>
+        <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6112,7 +6140,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6149,14 +6177,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7675-2019</t>
+          <t>A 8400-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43500</v>
+        <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6206,14 +6234,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 8526-2019</t>
+          <t>A 7675-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43502</v>
+        <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6226,7 +6254,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6263,14 +6291,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 8667-2019</t>
+          <t>A 8526-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43503</v>
+        <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6283,7 +6311,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6320,14 +6348,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9237-2019</t>
+          <t>A 8667-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43504</v>
+        <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6340,7 +6368,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6377,14 +6405,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9247-2019</t>
+          <t>A 9237-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43507</v>
+        <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6397,7 +6425,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6434,14 +6462,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 9242-2019</t>
+          <t>A 9247-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6454,7 +6482,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6491,14 +6519,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10176-2019</t>
+          <t>A 9242-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43510</v>
+        <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6511,7 +6539,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6548,14 +6576,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10175-2019</t>
+          <t>A 10176-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6596,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6605,14 +6633,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 12028-2019</t>
+          <t>A 10175-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43522</v>
+        <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6653,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6662,14 +6690,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 12378-2019</t>
+          <t>A 12028-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43523</v>
+        <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6710,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6719,14 +6747,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12391-2019</t>
+          <t>A 12378-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6767,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6776,14 +6804,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12400-2019</t>
+          <t>A 12391-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6824,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6833,14 +6861,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 12414-2019</t>
+          <t>A 12400-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6881,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6897,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6954,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7011,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7068,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7125,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7182,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7244,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7306,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7368,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7430,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8124,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8181,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8238,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8295,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8352,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8409,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8466,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8523,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8580,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8637,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8694,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8751,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8808,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8865,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8922,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8979,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9036,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9093,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9150,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9207,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9264,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9321,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9378,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9435,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9492,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9549,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9606,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9663,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9720,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9777,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9834,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9891,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9948,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10005,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10062,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10119,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10176,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10233,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10290,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10575,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10632,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10689,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10751,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10808,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10865,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10922,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10979,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11036,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11093,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11150,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11207,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11264,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11321,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11378,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11435,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11492,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11549,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11606,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11663,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11720,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11777,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11834,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11891,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11948,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12005,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12062,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12119,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12176,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12233,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12290,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12347,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12404,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12461,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12518,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12575,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12632,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12689,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12746,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12803,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12860,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12917,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12974,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13031,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13088,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13145,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13202,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13259,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13316,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13373,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13430,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13487,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13544,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13601,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13658,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13715,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13772,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13829,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13886,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13943,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14000,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14057,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14114,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14171,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14228,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14285,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14342,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14399,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14456,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14513,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14570,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14627,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14684,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14741,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14803,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14860,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14917,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14974,7 +15002,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15031,7 +15059,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15088,7 +15116,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15145,7 +15173,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15202,7 +15230,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15264,7 +15292,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15349,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15406,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15463,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15520,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15577,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15611,7 +15639,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15668,7 +15696,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15725,7 +15753,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15782,7 +15810,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15839,7 +15867,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15901,7 +15929,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15958,7 +15986,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16015,7 +16043,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16072,7 +16100,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16129,7 +16157,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16186,7 +16214,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16243,7 +16271,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16300,7 +16328,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16357,7 +16385,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16414,7 +16442,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16471,7 +16499,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16528,7 +16556,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16585,7 +16613,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16642,7 +16670,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16727,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16784,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16813,7 +16841,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16870,7 +16898,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16927,7 +16955,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16984,7 +17012,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17046,7 +17074,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17103,7 +17131,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17160,7 +17188,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17217,7 +17245,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17274,7 +17302,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17336,7 +17364,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17393,7 +17421,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17450,7 +17478,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17507,7 +17535,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17564,7 +17592,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17621,7 +17649,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17678,7 +17706,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17735,7 +17763,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17792,7 +17820,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17849,7 +17877,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17906,7 +17934,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17963,7 +17991,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18020,7 +18048,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18077,7 +18105,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18134,7 +18162,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18191,7 +18219,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18248,7 +18276,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18305,7 +18333,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18362,7 +18390,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18419,7 +18447,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18476,7 +18504,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18533,7 +18561,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18590,7 +18618,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18647,7 +18675,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18704,7 +18732,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18761,7 +18789,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18818,7 +18846,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18875,7 +18903,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18932,7 +18960,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18989,7 +19017,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19046,7 +19074,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19103,7 +19131,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19160,7 +19188,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19217,7 +19245,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19274,7 +19302,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19331,7 +19359,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19388,7 +19416,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19445,7 +19473,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19502,7 +19530,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19559,7 +19587,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19616,7 +19644,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19673,7 +19701,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19730,7 +19758,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19787,7 +19815,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19844,7 +19872,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19901,7 +19929,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19958,7 +19986,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20015,7 +20043,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20072,7 +20100,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20129,7 +20157,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20186,7 +20214,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20243,7 +20271,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20300,7 +20328,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20357,7 +20385,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20419,7 +20447,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20476,7 +20504,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20533,7 +20561,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20590,7 +20618,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20647,7 +20675,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20704,7 +20732,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20761,7 +20789,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20818,7 +20846,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20875,7 +20903,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20932,7 +20960,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20989,7 +21017,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21046,7 +21074,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21103,7 +21131,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21160,7 +21188,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21217,7 +21245,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21274,7 +21302,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21331,7 +21359,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21388,7 +21416,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21445,7 +21473,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21502,7 +21530,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21559,7 +21587,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21616,7 +21644,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21673,7 +21701,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21730,7 +21758,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21787,7 +21815,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21844,7 +21872,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21901,7 +21929,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21958,7 +21986,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22015,7 +22043,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22072,7 +22100,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22129,7 +22157,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22186,7 +22214,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22243,7 +22271,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22300,7 +22328,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22362,7 +22390,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22424,7 +22452,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22481,7 +22509,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22538,7 +22566,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22595,7 +22623,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22652,7 +22680,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22709,7 +22737,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22766,7 +22794,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22823,7 +22851,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22880,7 +22908,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22937,7 +22965,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22994,7 +23022,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23051,7 +23079,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23108,7 +23136,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23165,7 +23193,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23222,7 +23250,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23279,7 +23307,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23336,7 +23364,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23393,7 +23421,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23450,7 +23478,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23507,7 +23535,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23564,7 +23592,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23621,7 +23649,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23678,7 +23706,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23735,7 +23763,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23792,7 +23820,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23849,7 +23877,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23906,7 +23934,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23963,7 +23991,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24020,7 +24048,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24077,7 +24105,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24134,7 +24162,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24191,7 +24219,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24248,7 +24276,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24305,7 +24333,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24362,7 +24390,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24419,7 +24447,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24476,7 +24504,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24533,7 +24561,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24590,7 +24618,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24647,7 +24675,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24704,7 +24732,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24761,7 +24789,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24818,7 +24846,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24875,7 +24903,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24937,7 +24965,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -24994,7 +25022,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25051,7 +25079,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25108,7 +25136,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25165,7 +25193,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25222,7 +25250,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25279,7 +25307,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25336,7 +25364,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25393,7 +25421,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25450,7 +25478,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25507,7 +25535,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25564,7 +25592,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25621,7 +25649,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25678,7 +25706,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25735,7 +25763,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25792,7 +25820,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25849,7 +25877,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25906,7 +25934,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25963,7 +25991,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26020,7 +26048,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26077,7 +26105,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26134,7 +26162,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26191,7 +26219,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26253,7 +26281,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26310,7 +26338,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26367,7 +26395,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26424,7 +26452,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26481,7 +26509,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26538,7 +26566,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26595,7 +26623,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26652,7 +26680,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26709,7 +26737,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26766,7 +26794,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26823,7 +26851,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26880,7 +26908,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26937,7 +26965,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -26994,7 +27022,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27051,7 +27079,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27108,7 +27136,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27165,7 +27193,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27222,7 +27250,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27279,7 +27307,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27336,7 +27364,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27393,7 +27421,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27455,7 +27483,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27512,7 +27540,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27569,7 +27597,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27626,7 +27654,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27683,7 +27711,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27740,7 +27768,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27797,7 +27825,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27854,7 +27882,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27911,7 +27939,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27968,7 +27996,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28025,7 +28053,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28082,7 +28110,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28139,7 +28167,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28196,7 +28224,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28253,7 +28281,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28310,7 +28338,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28367,7 +28395,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28424,7 +28452,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28481,7 +28509,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28538,7 +28566,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28595,7 +28623,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28652,7 +28680,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28709,7 +28737,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28766,7 +28794,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28823,7 +28851,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28880,7 +28908,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28937,7 +28965,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -28994,7 +29022,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29051,7 +29079,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29108,7 +29136,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29170,7 +29198,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29232,7 +29260,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29314,7 +29342,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29371,7 +29399,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29433,7 +29461,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29490,7 +29518,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29547,7 +29575,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29604,7 +29632,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29661,7 +29689,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29718,7 +29746,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29775,7 +29803,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29832,7 +29860,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29889,7 +29917,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29946,7 +29974,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30003,7 +30031,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30060,7 +30088,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30117,7 +30145,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30174,7 +30202,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30231,7 +30259,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30288,7 +30316,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30345,7 +30373,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30402,7 +30430,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30459,7 +30487,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30516,7 +30544,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30573,7 +30601,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30630,7 +30658,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30687,7 +30715,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30744,7 +30772,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30801,7 +30829,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30858,7 +30886,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30915,7 +30943,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -30977,7 +31005,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31034,7 +31062,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31091,7 +31119,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31148,7 +31176,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31205,7 +31233,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31262,7 +31290,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31319,7 +31347,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31376,7 +31404,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31433,7 +31461,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31490,7 +31518,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31547,7 +31575,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31604,7 +31632,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31661,7 +31689,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31718,7 +31746,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31775,7 +31803,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31832,7 +31860,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31889,7 +31917,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31946,7 +31974,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32003,7 +32031,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32060,7 +32088,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32117,7 +32145,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32174,7 +32202,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32231,7 +32259,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32288,7 +32316,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32345,7 +32373,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32402,7 +32430,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32459,7 +32487,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32516,7 +32544,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32573,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32630,7 +32658,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32687,7 +32715,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32744,7 +32772,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32801,7 +32829,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32858,7 +32886,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32915,7 +32943,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -32972,7 +33000,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33029,7 +33057,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33086,7 +33114,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33143,7 +33171,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33200,7 +33228,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33257,7 +33285,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33314,7 +33342,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33371,7 +33399,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33428,7 +33456,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33485,7 +33513,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33542,7 +33570,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33599,7 +33627,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33656,7 +33684,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33713,7 +33741,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33770,7 +33798,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 35531-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 35531-2023.xlsx", "A 35531-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 35531-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 35531-2023.png", "A 35531-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 35531-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 35531-2023.docx", "A 35531-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 35531-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 35531-2023.docx", "A 35531-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 35531-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 35531-2023.docx", "A 35531-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 35531-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 35531-2023.docx", "A 35531-2023")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -721,27 +721,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 44551-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 44551-2020.xlsx", "A 44551-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 44551-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 44551-2020.png", "A 44551-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 44551-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 44551-2020.docx", "A 44551-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 44551-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 44551-2020.docx", "A 44551-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 44551-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 44551-2020.docx", "A 44551-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 44551-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 44551-2020.docx", "A 44551-2020")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -808,27 +808,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 21810-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 21810-2021.xlsx", "A 21810-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 21810-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 21810-2021.png", "A 21810-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 21810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 21810-2021.docx", "A 21810-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 21810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 21810-2021.docx", "A 21810-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 21810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 21810-2021.docx", "A 21810-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 21810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 21810-2021.docx", "A 21810-2021")</f>
         <v/>
       </c>
     </row>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -894,27 +894,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 4593-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 4593-2019.xlsx", "A 4593-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 4593-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 4593-2019.png", "A 4593-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 4593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 4593-2019.docx", "A 4593-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 4593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 4593-2019.docx", "A 4593-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 4593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 4593-2019.docx", "A 4593-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 4593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 4593-2019.docx", "A 4593-2019")</f>
         <v/>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -985,27 +985,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 18593-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 18593-2019.xlsx", "A 18593-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 18593-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 18593-2019.png", "A 18593-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 18593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 18593-2019.docx", "A 18593-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 18593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 18593-2019.docx", "A 18593-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 18593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 18593-2019.docx", "A 18593-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 18593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 18593-2019.docx", "A 18593-2019")</f>
         <v/>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,27 +1071,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 48668-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 48668-2019.xlsx", "A 48668-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 48668-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 48668-2019.png", "A 48668-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 48668-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 48668-2019.docx", "A 48668-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 48668-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 48668-2019.docx", "A 48668-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 48668-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 48668-2019.docx", "A 48668-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 48668-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 48668-2019.docx", "A 48668-2019")</f>
         <v/>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1157,27 +1157,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 70221-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 70221-2021.xlsx", "A 70221-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 70221-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 70221-2021.png", "A 70221-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 70221-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 70221-2021.docx", "A 70221-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 70221-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 70221-2021.docx", "A 70221-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 70221-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 70221-2021.docx", "A 70221-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 70221-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 70221-2021.docx", "A 70221-2021")</f>
         <v/>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,27 +1243,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 4825-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 4825-2022.xlsx", "A 4825-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 4825-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 4825-2022.png", "A 4825-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 4825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 4825-2022.docx", "A 4825-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 4825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 4825-2022.docx", "A 4825-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 4825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 4825-2022.docx", "A 4825-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 4825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 4825-2022.docx", "A 4825-2022")</f>
         <v/>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1329,27 +1329,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 52816-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 52816-2022.xlsx", "A 52816-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 52816-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 52816-2022.png", "A 52816-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 52816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 52816-2022.docx", "A 52816-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 52816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 52816-2022.docx", "A 52816-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 52816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 52816-2022.docx", "A 52816-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 52816-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 52816-2022.docx", "A 52816-2022")</f>
         <v/>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1414,27 +1414,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 2159-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 2159-2019.xlsx", "A 2159-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 2159-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 2159-2019.png", "A 2159-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 2159-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 2159-2019.docx", "A 2159-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 2159-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 2159-2019.docx", "A 2159-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 2159-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 2159-2019.docx", "A 2159-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 2159-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 2159-2019.docx", "A 2159-2019")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1499,27 +1499,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 8437-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 8437-2019.xlsx", "A 8437-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 8437-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 8437-2019.png", "A 8437-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 8437-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 8437-2019.docx", "A 8437-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 8437-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 8437-2019.docx", "A 8437-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 8437-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 8437-2019.docx", "A 8437-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 8437-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 8437-2019.docx", "A 8437-2019")</f>
         <v/>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1584,27 +1584,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 12414-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 12414-2019.xlsx", "A 12414-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 12414-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 12414-2019.png", "A 12414-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 12414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 12414-2019.docx", "A 12414-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 12414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 12414-2019.docx", "A 12414-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 12414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 12414-2019.docx", "A 12414-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 12414-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 12414-2019.docx", "A 12414-2019")</f>
         <v/>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,27 +1674,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 18590-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 18590-2019.xlsx", "A 18590-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 18590-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 18590-2019.png", "A 18590-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 18590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 18590-2019.docx", "A 18590-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 18590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 18590-2019.docx", "A 18590-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 18590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 18590-2019.docx", "A 18590-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 18590-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 18590-2019.docx", "A 18590-2019")</f>
         <v/>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1759,27 +1759,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 22980-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 22980-2019.xlsx", "A 22980-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 22980-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 22980-2019.png", "A 22980-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 22980-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 22980-2019.docx", "A 22980-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 22980-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 22980-2019.docx", "A 22980-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 22980-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 22980-2019.docx", "A 22980-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 22980-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 22980-2019.docx", "A 22980-2019")</f>
         <v/>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1849,27 +1849,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 26557-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 26557-2019.xlsx", "A 26557-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 26557-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 26557-2019.png", "A 26557-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 26557-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 26557-2019.docx", "A 26557-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 26557-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 26557-2019.docx", "A 26557-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 26557-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 26557-2019.docx", "A 26557-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 26557-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 26557-2019.docx", "A 26557-2019")</f>
         <v/>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1934,27 +1934,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 53911-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 53911-2019.xlsx", "A 53911-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 53911-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 53911-2019.png", "A 53911-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 53911-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 53911-2019.docx", "A 53911-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 53911-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 53911-2019.docx", "A 53911-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 53911-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 53911-2019.docx", "A 53911-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 53911-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 53911-2019.docx", "A 53911-2019")</f>
         <v/>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2019,27 +2019,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 37608-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 37608-2022.xlsx", "A 37608-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 37608-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 37608-2022.png", "A 37608-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 37608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 37608-2022.docx", "A 37608-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 37608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 37608-2022.docx", "A 37608-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 37608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 37608-2022.docx", "A 37608-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 37608-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 37608-2022.docx", "A 37608-2022")</f>
         <v/>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2104,27 +2104,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 39766-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 39766-2022.xlsx", "A 39766-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 39766-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 39766-2022.png", "A 39766-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 39766-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 39766-2022.docx", "A 39766-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 39766-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 39766-2022.docx", "A 39766-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 39766-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 39766-2022.docx", "A 39766-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 39766-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 39766-2022.docx", "A 39766-2022")</f>
         <v/>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2189,27 +2189,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 31848-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 31848-2023.xlsx", "A 31848-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 31848-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 31848-2023.png", "A 31848-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 31848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 31848-2023.docx", "A 31848-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 31848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 31848-2023.docx", "A 31848-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 31848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 31848-2023.docx", "A 31848-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 31848-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 31848-2023.docx", "A 31848-2023")</f>
         <v/>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2274,27 +2274,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 37950-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/artfynd/A 37950-2023.xlsx", "A 37950-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 37950-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/kartor/A 37950-2023.png", "A 37950-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 37950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 37950-2023.docx", "A 37950-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 37950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 37950-2023.docx", "A 37950-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 37950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 37950-2023.docx", "A 37950-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 37950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 37950-2023.docx", "A 37950-2023")</f>
         <v/>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29312,23 +29312,23 @@
       </c>
       <c r="R493" s="2" t="inlineStr"/>
       <c r="U493">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/knärot/A 35279-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/knärot/A 35279-2022.png", "A 35279-2022")</f>
         <v/>
       </c>
       <c r="V493">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 35279-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 35279-2022.docx", "A 35279-2022")</f>
         <v/>
       </c>
       <c r="W493">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 35279-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 35279-2022.docx", "A 35279-2022")</f>
         <v/>
       </c>
       <c r="X493">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 35279-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 35279-2022.docx", "A 35279-2022")</f>
         <v/>
       </c>
       <c r="Y493">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 35279-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 35279-2022.docx", "A 35279-2022")</f>
         <v/>
       </c>
     </row>
@@ -29342,7 +29342,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18903,7 +18903,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18960,7 +18960,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19929,7 +19929,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21302,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21359,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21473,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21530,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21758,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21872,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21929,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22043,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22328,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22390,7 +22390,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25022,7 +25022,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25250,7 +25250,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25307,7 +25307,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26509,7 +26509,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26566,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26680,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27540,7 +27540,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27654,7 +27654,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27711,7 +27711,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27768,7 +27768,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28281,7 +28281,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29260,7 +29260,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29461,7 +29461,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29575,7 +29575,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29632,7 +29632,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29689,7 +29689,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30031,7 +30031,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30088,7 +30088,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30145,7 +30145,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30943,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32487,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32601,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32658,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32715,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32772,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32829,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32886,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33000,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33057,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33114,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33285,7 +33285,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33342,7 +33342,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33399,7 +33399,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33456,7 +33456,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33513,7 +33513,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33570,7 +33570,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33627,7 +33627,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33684,7 +33684,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14991,6 +14991,26 @@
         <v>0</v>
       </c>
       <c r="R243" s="2" t="inlineStr"/>
+      <c r="U243">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/knärot/A 63638-2019.png", "A 63638-2019")</f>
+        <v/>
+      </c>
+      <c r="V243">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomål/A 63638-2019.docx", "A 63638-2019")</f>
+        <v/>
+      </c>
+      <c r="W243">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/klagomålsmail/A 63638-2019.docx", "A 63638-2019")</f>
+        <v/>
+      </c>
+      <c r="X243">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsyn/A 63638-2019.docx", "A 63638-2019")</f>
+        <v/>
+      </c>
+      <c r="Y243">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ALVESTA/tillsynsmail/A 63638-2019.docx", "A 63638-2019")</f>
+        <v/>
+      </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
@@ -15002,7 +15022,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15059,7 +15079,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15116,7 +15136,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15173,7 +15193,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15230,7 +15250,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15292,7 +15312,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15349,7 +15369,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15406,7 +15426,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15463,7 +15483,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15520,7 +15540,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15577,7 +15597,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15639,7 +15659,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15696,7 +15716,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15753,7 +15773,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15810,7 +15830,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15867,7 +15887,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15929,7 +15949,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15986,7 +16006,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16043,7 +16063,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16100,7 +16120,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16157,7 +16177,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16214,7 +16234,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16271,7 +16291,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16328,7 +16348,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16385,7 +16405,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16442,7 +16462,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16499,7 +16519,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16556,7 +16576,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16613,7 +16633,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16670,7 +16690,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16727,7 +16747,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16784,7 +16804,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16841,7 +16861,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16898,7 +16918,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16955,7 +16975,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17012,7 +17032,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17074,7 +17094,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17131,7 +17151,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17188,7 +17208,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17245,7 +17265,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17302,7 +17322,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17364,7 +17384,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17421,7 +17441,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17478,7 +17498,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17535,7 +17555,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17592,7 +17612,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17649,7 +17669,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17706,7 +17726,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17763,7 +17783,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17820,7 +17840,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17877,7 +17897,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17934,7 +17954,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17991,7 +18011,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18048,7 +18068,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18105,7 +18125,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18162,7 +18182,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18219,7 +18239,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18276,7 +18296,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18333,7 +18353,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18390,7 +18410,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18447,7 +18467,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18504,7 +18524,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18561,7 +18581,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18618,7 +18638,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18675,7 +18695,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18732,7 +18752,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18789,7 +18809,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18846,7 +18866,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18903,7 +18923,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18960,7 +18980,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19017,7 +19037,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19074,7 +19094,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19131,7 +19151,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19188,7 +19208,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19245,7 +19265,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19302,7 +19322,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19359,7 +19379,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19416,7 +19436,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19473,7 +19493,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19530,7 +19550,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19587,7 +19607,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19644,7 +19664,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19701,7 +19721,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19758,7 +19778,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19815,7 +19835,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19872,7 +19892,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19929,7 +19949,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19986,7 +20006,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20043,7 +20063,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20100,7 +20120,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20157,7 +20177,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20214,7 +20234,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20271,7 +20291,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20328,7 +20348,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20385,7 +20405,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20447,7 +20467,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20504,7 +20524,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20561,7 +20581,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20618,7 +20638,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20675,7 +20695,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20732,7 +20752,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20789,7 +20809,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20846,7 +20866,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20903,7 +20923,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20960,7 +20980,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21017,7 +21037,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21074,7 +21094,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21131,7 +21151,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21188,7 +21208,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21245,7 +21265,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21302,7 +21322,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21359,7 +21379,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21416,7 +21436,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21473,7 +21493,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21530,7 +21550,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21587,7 +21607,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21644,7 +21664,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21701,7 +21721,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21758,7 +21778,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21815,7 +21835,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21872,7 +21892,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21929,7 +21949,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21986,7 +22006,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22043,7 +22063,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22100,7 +22120,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22157,7 +22177,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22214,7 +22234,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22271,7 +22291,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22328,7 +22348,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22390,7 +22410,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22452,7 +22472,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22509,7 +22529,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22566,7 +22586,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22623,7 +22643,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22680,7 +22700,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22737,7 +22757,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22794,7 +22814,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22851,7 +22871,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22908,7 +22928,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22965,7 +22985,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23022,7 +23042,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23079,7 +23099,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23136,7 +23156,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23193,7 +23213,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23250,7 +23270,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23307,7 +23327,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23364,7 +23384,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23421,7 +23441,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23478,7 +23498,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23535,7 +23555,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23592,7 +23612,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23649,7 +23669,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23706,7 +23726,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23763,7 +23783,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23820,7 +23840,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23877,7 +23897,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23934,7 +23954,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23991,7 +24011,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24048,7 +24068,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24105,7 +24125,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24162,7 +24182,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24219,7 +24239,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24276,7 +24296,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24333,7 +24353,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24390,7 +24410,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24447,7 +24467,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24504,7 +24524,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24561,7 +24581,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24618,7 +24638,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24675,7 +24695,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24732,7 +24752,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24789,7 +24809,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24846,7 +24866,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24903,7 +24923,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24965,7 +24985,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25022,7 +25042,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25079,7 +25099,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25136,7 +25156,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25193,7 +25213,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25250,7 +25270,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25307,7 +25327,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25364,7 +25384,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25421,7 +25441,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25478,7 +25498,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25535,7 +25555,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25592,7 +25612,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25649,7 +25669,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25706,7 +25726,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25763,7 +25783,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25820,7 +25840,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25877,7 +25897,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25934,7 +25954,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -25991,7 +26011,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26048,7 +26068,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26105,7 +26125,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26162,7 +26182,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26219,7 +26239,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26281,7 +26301,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26338,7 +26358,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26395,7 +26415,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26452,7 +26472,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26509,7 +26529,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26566,7 +26586,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26623,7 +26643,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26680,7 +26700,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26737,7 +26757,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26794,7 +26814,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26851,7 +26871,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26908,7 +26928,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26965,7 +26985,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27022,7 +27042,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27079,7 +27099,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27136,7 +27156,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27193,7 +27213,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27250,7 +27270,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27307,7 +27327,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27364,7 +27384,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27421,7 +27441,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27483,7 +27503,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27540,7 +27560,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27597,7 +27617,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27654,7 +27674,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27711,7 +27731,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27768,7 +27788,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27825,7 +27845,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27882,7 +27902,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27939,7 +27959,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -27996,7 +28016,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28053,7 +28073,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28110,7 +28130,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28167,7 +28187,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28224,7 +28244,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28281,7 +28301,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28338,7 +28358,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28395,7 +28415,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28452,7 +28472,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28509,7 +28529,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28566,7 +28586,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28623,7 +28643,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28680,7 +28700,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28737,7 +28757,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28794,7 +28814,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28851,7 +28871,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28908,7 +28928,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28965,7 +28985,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29022,7 +29042,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29079,7 +29099,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29136,7 +29156,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29198,7 +29218,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29260,7 +29280,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29342,7 +29362,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29399,7 +29419,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29461,7 +29481,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29518,7 +29538,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29575,7 +29595,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29632,7 +29652,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29689,7 +29709,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29746,7 +29766,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29803,7 +29823,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29860,7 +29880,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29917,7 +29937,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29974,7 +29994,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30031,7 +30051,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30088,7 +30108,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30145,7 +30165,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30202,7 +30222,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30259,7 +30279,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30316,7 +30336,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30373,7 +30393,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30430,7 +30450,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30487,7 +30507,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30544,7 +30564,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30601,7 +30621,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30658,7 +30678,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30715,7 +30735,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30772,7 +30792,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30829,7 +30849,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30886,7 +30906,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30943,7 +30963,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31005,7 +31025,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31062,7 +31082,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31119,7 +31139,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31176,7 +31196,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31233,7 +31253,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31290,7 +31310,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31347,7 +31367,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31404,7 +31424,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31461,7 +31481,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31518,7 +31538,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31575,7 +31595,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31632,7 +31652,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31689,7 +31709,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31746,7 +31766,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31803,7 +31823,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31860,7 +31880,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31917,7 +31937,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31974,7 +31994,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32031,7 +32051,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32088,7 +32108,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32145,7 +32165,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32202,7 +32222,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32259,7 +32279,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32316,7 +32336,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32373,7 +32393,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32430,7 +32450,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32487,7 +32507,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32544,7 +32564,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32601,7 +32621,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32658,7 +32678,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32715,7 +32735,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32772,7 +32792,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32829,7 +32849,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32886,7 +32906,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32943,7 +32963,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33000,7 +33020,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33057,7 +33077,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33114,7 +33134,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33171,7 +33191,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33228,7 +33248,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33285,7 +33305,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33342,7 +33362,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33399,7 +33419,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33456,7 +33476,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33513,7 +33533,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33570,7 +33590,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33627,7 +33647,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33684,7 +33704,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33741,7 +33761,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33798,7 +33818,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17954,7 +17954,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18011,7 +18011,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18182,7 +18182,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18239,7 +18239,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18296,7 +18296,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30222,7 +30222,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30450,7 +30450,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30507,7 +30507,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30621,7 +30621,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30678,7 +30678,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30735,7 +30735,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30792,7 +30792,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30849,7 +30849,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30906,7 +30906,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32108,7 +32108,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32165,7 +32165,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32222,7 +32222,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32279,7 +32279,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32507,7 +32507,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32564,7 +32564,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32621,7 +32621,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33419,7 +33419,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33533,7 +33533,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33590,7 +33590,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43704</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43706</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43707</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43711</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43711</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43712</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43714</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43717</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43718</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43718</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43728</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43728</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43728</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43728</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>43732</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12318,7 +12318,7 @@
         <v>43733</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12375,7 +12375,7 @@
         <v>43734</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12432,7 +12432,7 @@
         <v>43735</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12489,7 +12489,7 @@
         <v>43739</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         <v>43739</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43740</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43747</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>43747</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43747</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>43747</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43747</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43747</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43747</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13059,7 +13059,7 @@
         <v>43747</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43747</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>43747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>43747</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>43747</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>43747</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>43747</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43747</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>43747</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>43747</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>43747</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43747</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>43747</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>43747</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>43747</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13971,7 +13971,7 @@
         <v>43749</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14028,7 +14028,7 @@
         <v>43753</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14085,7 +14085,7 @@
         <v>43753</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>43753</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>43755</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43756</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43774</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43774</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>43774</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>43774</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43774</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14712,7 +14712,7 @@
         <v>43777</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14769,7 +14769,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14831,7 +14831,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14888,7 +14888,7 @@
         <v>43794</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>43795</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>43795</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>43795</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43795</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43798</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43801</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43802</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43802</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43808</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43819</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43819</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>43826</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>43835</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>43838</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>43840</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43843</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43853</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43853</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>43853</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>43854</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>43854</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>43858</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>43858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>43858</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>43859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>43871</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>43878</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>43879</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43879</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>43880</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>43886</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>43893</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>43893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16975,7 +16975,7 @@
         <v>43893</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>43894</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>43915</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>43915</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>43921</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>43941</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>43941</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>43955</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>43962</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>43970</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         <v>43985</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>43990</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>43992</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>43992</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>44000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17954,7 +17954,7 @@
         <v>44000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18011,7 +18011,7 @@
         <v>44000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>44000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18182,7 +18182,7 @@
         <v>44004</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18239,7 +18239,7 @@
         <v>44007</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18296,7 +18296,7 @@
         <v>44012</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18353,7 +18353,7 @@
         <v>44012</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18410,7 +18410,7 @@
         <v>44012</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44014</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>44014</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>44016</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
         <v>44016</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18695,7 +18695,7 @@
         <v>44018</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44018</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44022</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44032</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44035</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44046</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44047</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44048</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44048</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44049</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44050</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44051</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44053</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44054</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44054</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44056</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44056</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>44060</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>44061</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>44062</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>44064</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>44064</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44067</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>44074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>44074</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>44076</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>44078</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>44078</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44078</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>44084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44089</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44095</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44113</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44115</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44115</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20752,7 +20752,7 @@
         <v>44116</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
         <v>44117</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         <v>44123</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20923,7 +20923,7 @@
         <v>44124</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         <v>44124</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21037,7 +21037,7 @@
         <v>44124</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>44125</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>44130</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>44137</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21265,7 +21265,7 @@
         <v>44141</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44144</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44151</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21493,7 +21493,7 @@
         <v>44153</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21550,7 +21550,7 @@
         <v>44159</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44159</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         <v>44165</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21721,7 +21721,7 @@
         <v>44165</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21778,7 +21778,7 @@
         <v>44165</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>44172</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44174</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44175</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44175</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44182</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44186</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44188</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>44200</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         <v>44207</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44210</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>44211</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>44216</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44216</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>44222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44232</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44236</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44236</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44238</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44243</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44243</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23042,7 +23042,7 @@
         <v>44249</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
         <v>44256</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23156,7 +23156,7 @@
         <v>44256</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
         <v>44257</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23270,7 +23270,7 @@
         <v>44257</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44271</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23384,7 +23384,7 @@
         <v>44293</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44295</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>44295</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>44305</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44306</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>44306</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23726,7 +23726,7 @@
         <v>44307</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23783,7 +23783,7 @@
         <v>44309</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23840,7 +23840,7 @@
         <v>44313</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23897,7 +23897,7 @@
         <v>44313</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>44320</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24011,7 +24011,7 @@
         <v>44323</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         <v>44326</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24125,7 +24125,7 @@
         <v>44328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24182,7 +24182,7 @@
         <v>44336</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24239,7 +24239,7 @@
         <v>44336</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
         <v>44351</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24353,7 +24353,7 @@
         <v>44354</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24410,7 +24410,7 @@
         <v>44362</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>44363</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>44365</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>44369</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44385</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>44385</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44386</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44390</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44399</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44404</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>44412</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>44419</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>44419</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25213,7 +25213,7 @@
         <v>44420</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>44424</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>44434</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>44434</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44435</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>44438</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>44438</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>44441</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44442</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44442</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25783,7 +25783,7 @@
         <v>44442</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25840,7 +25840,7 @@
         <v>44447</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25897,7 +25897,7 @@
         <v>44448</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25954,7 +25954,7 @@
         <v>44454</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         <v>44455</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>44455</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>44467</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>44490</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>44495</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>44495</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>44496</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>44497</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44504</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44511</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44511</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>44515</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>44523</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44523</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>44526</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>44538</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>44569</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>44592</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27042,7 +27042,7 @@
         <v>44593</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>44597</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>44597</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>44600</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>44601</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>44601</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>44601</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>44606</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44606</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44608</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44613</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44615</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44615</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>44615</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>44635</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>44635</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>44635</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>44642</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>44648</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>44649</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>44656</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>44657</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44665</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>44692</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>44706</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>44706</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>44734</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>44740</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>44741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>44743</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>44743</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>44743</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>44747</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44749</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>44754</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44768</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44768</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44782</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>44782</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>44798</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29362,7 +29362,7 @@
         <v>44804</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29419,7 +29419,7 @@
         <v>44805</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>44805</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>44812</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>44816</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>44823</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>44824</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>44827</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>44833</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>44839</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>44881</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>44901</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30108,7 +30108,7 @@
         <v>44901</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30165,7 +30165,7 @@
         <v>44909</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30222,7 +30222,7 @@
         <v>44911</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44911</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>44914</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>44925</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30450,7 +30450,7 @@
         <v>44925</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30507,7 +30507,7 @@
         <v>44935</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30564,7 +30564,7 @@
         <v>44935</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30621,7 +30621,7 @@
         <v>44938</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30678,7 +30678,7 @@
         <v>44938</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30735,7 +30735,7 @@
         <v>44943</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30792,7 +30792,7 @@
         <v>44950</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30849,7 +30849,7 @@
         <v>44951</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30906,7 +30906,7 @@
         <v>44957</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44958</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44973</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44974</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44979</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44985</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44985</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44998</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>45000</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45012</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>45015</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>45015</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45015</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>45041</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>45045</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>45049</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>45049</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>45055</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31937,7 +31937,7 @@
         <v>45061</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>45075</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32051,7 +32051,7 @@
         <v>45079</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32108,7 +32108,7 @@
         <v>45086</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32165,7 +32165,7 @@
         <v>45101</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32222,7 +32222,7 @@
         <v>45103</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32279,7 +32279,7 @@
         <v>45103</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         <v>45103</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>45103</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         <v>45105</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32507,7 +32507,7 @@
         <v>45105</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32564,7 +32564,7 @@
         <v>45106</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32621,7 +32621,7 @@
         <v>45106</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45106</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45110</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45110</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45110</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33020,7 +33020,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33077,7 +33077,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>45114</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33191,7 +33191,7 @@
         <v>45114</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33248,7 +33248,7 @@
         <v>45128</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33305,7 +33305,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33362,7 +33362,7 @@
         <v>45128</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33419,7 +33419,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33533,7 +33533,7 @@
         <v>45153</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33590,7 +33590,7 @@
         <v>45153</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33647,7 +33647,7 @@
         <v>45153</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33704,7 +33704,7 @@
         <v>45153</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33761,7 +33761,7 @@
         <v>45161</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45169</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt ALVESTA.xlsx
+++ b/Översikt ALVESTA.xlsx
@@ -572,7 +572,7 @@
         <v>45146</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>43486</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>43560</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>43728</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44535</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>44592</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44872</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>43475</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43497</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>43523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>43560</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>43591</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43612</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>44810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44819</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45106</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>45160</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>43318</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43322</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>43326</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43329</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43332</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43335</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43339</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43343</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43347</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43350</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>43350</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>43355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43356</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>43367</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         <v>43369</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>43382</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>43390</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>43395</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         <v>43399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43402</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43403</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43408</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>43408</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>43409</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>43411</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         <v>43416</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         <v>43420</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>43423</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>43427</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>43431</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43433</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>43434</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>43439</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>43440</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43440</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43441</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43441</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43447</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43447</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43451</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43452</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43475</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43475</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43479</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43480</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43486</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43488</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43489</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43493</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43494</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43496</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43497</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43500</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43502</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43503</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         <v>43504</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         <v>43507</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         <v>43507</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>43510</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43510</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6754,7 @@
         <v>43523</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6811,7 @@
         <v>43523</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43523</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43523</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43529</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43534</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43537</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43537</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43537</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7396,7 +7396,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43538</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43545</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43560</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43560</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43563</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43567</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43572</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43587</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43601</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43605</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43605</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43606</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43607</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43608</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43608</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43609</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43609</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43612</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43612</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43616</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43621</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43626</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43626</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43627</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43628</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43630</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43633</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43634</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43634</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43636</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43636</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43636</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43640</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43644</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43644</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43651</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43653</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>43654</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9919,7 +9919,7 @@
         <v>43655</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>43655</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>43661</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>43664</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>43664</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>43664</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>43667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>43667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>43667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>43668</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>43668</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>43669</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>43672</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>43675</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>43675</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43684</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43690</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43690</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43690</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43690</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43698</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43698</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43698</v>
   